--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="917">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="917">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31370,7 +31370,7 @@
         <v>89</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>89</v>
@@ -31400,7 +31400,7 @@
         <v>89</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>89</v>
@@ -31415,7 +31415,7 @@
         <v>89</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>89</v>
@@ -31439,7 +31439,7 @@
         <v>89</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>89</v>
@@ -32057,7 +32057,7 @@
         <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>89</v>
@@ -32075,7 +32075,7 @@
         <v>89</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>89</v>
@@ -32084,7 +32084,7 @@
         <v>89</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>89</v>
@@ -32099,7 +32099,7 @@
         <v>89</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>89</v>
@@ -32114,7 +32114,7 @@
         <v>89</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>89</v>
@@ -32123,7 +32123,7 @@
         <v>89</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="Z12" s="5" t="s">
         <v>89</v>
@@ -32135,7 +32135,7 @@
         <v>89</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="AD12" s="5" t="s">
         <v>89</v>
@@ -32147,10 +32147,10 @@
         <v>89</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="AI12" s="5" t="s">
         <v>89</v>
@@ -32159,7 +32159,7 @@
         <v>89</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="AL12" s="5" t="s">
         <v>89</v>
@@ -32197,13 +32197,13 @@
         <v>89</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>89</v>
@@ -32212,7 +32212,7 @@
         <v>89</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>89</v>
@@ -32227,7 +32227,7 @@
         <v>89</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>89</v>
@@ -32286,13 +32286,13 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
@@ -32307,10 +32307,10 @@
         <v>89</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>89</v>
@@ -32322,7 +32322,7 @@
         <v>89</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>89</v>
@@ -32346,19 +32346,19 @@
         <v>89</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>89</v>
@@ -32376,7 +32376,7 @@
         <v>89</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>89</v>
@@ -32388,10 +32388,10 @@
         <v>89</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>89</v>
@@ -32429,7 +32429,7 @@
         <v>89</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>89</v>
@@ -32441,10 +32441,10 @@
         <v>89</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>89</v>
@@ -32795,10 +32795,10 @@
         <v>89</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>89</v>
@@ -32807,7 +32807,7 @@
         <v>89</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>89</v>
@@ -32843,10 +32843,10 @@
         <v>89</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>89</v>
@@ -32991,7 +32991,7 @@
         <v>89</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>89</v>
@@ -33000,7 +33000,7 @@
         <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>89</v>
@@ -33009,7 +33009,7 @@
         <v>89</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>89</v>
@@ -33024,7 +33024,7 @@
         <v>89</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>89</v>
@@ -33033,13 +33033,13 @@
         <v>89</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>89</v>
@@ -33057,19 +33057,19 @@
         <v>89</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="AB20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>89</v>
@@ -33081,7 +33081,7 @@
         <v>89</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>89</v>
@@ -33910,31 +33910,31 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>89</v>
@@ -33955,13 +33955,13 @@
         <v>89</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>89</v>
@@ -33970,25 +33970,25 @@
         <v>89</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="Z28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AC28" s="5" t="s">
         <v>89</v>
@@ -33997,25 +33997,25 @@
         <v>89</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -34145,13 +34145,13 @@
         <v>89</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>89</v>
@@ -34223,10 +34223,10 @@
         <v>89</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AE30" s="5" t="s">
         <v>89</v>
@@ -34241,7 +34241,7 @@
         <v>89</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>89</v>
@@ -35178,7 +35178,7 @@
         <v>89</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
@@ -35186,115 +35186,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40">
@@ -35302,115 +35302,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41">
@@ -35418,115 +35418,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>118</v>
+        <v>306</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>118</v>
+        <v>386</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>118</v>
+        <v>424</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>118</v>
+        <v>503</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>118</v>
+        <v>541</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>118</v>
+        <v>569</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>118</v>
+        <v>596</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>118</v>
+        <v>609</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>118</v>
+        <v>636</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>118</v>
+        <v>649</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>118</v>
+        <v>671</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>118</v>
+        <v>709</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>118</v>
+        <v>737</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>118</v>
+        <v>770</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>118</v>
+        <v>805</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>118</v>
+        <v>836</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>118</v>
+        <v>864</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>118</v>
+        <v>897</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42">
